--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>33.97016607233056</v>
+        <v>67.40485854295278</v>
       </c>
       <c r="R2">
-        <v>305.731494650975</v>
+        <v>606.643726886575</v>
       </c>
       <c r="S2">
-        <v>0.1866595899833297</v>
+        <v>0.3112096638900835</v>
       </c>
       <c r="T2">
-        <v>0.1866595899833297</v>
+        <v>0.3112096638900834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
         <v>115.3123773537055</v>
@@ -632,10 +632,10 @@
         <v>1037.81139618335</v>
       </c>
       <c r="S3">
-        <v>0.6336195422482073</v>
+        <v>0.5323996960210983</v>
       </c>
       <c r="T3">
-        <v>0.6336195422482073</v>
+        <v>0.532399696021098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
         <v>26.57842427370278</v>
@@ -694,10 +694,10 @@
         <v>239.205818463325</v>
       </c>
       <c r="S4">
-        <v>0.1460433772024823</v>
+        <v>0.1227131495228376</v>
       </c>
       <c r="T4">
-        <v>0.1460433772024823</v>
+        <v>0.1227131495228375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>1.183900753896111</v>
+        <v>2.349139614900555</v>
       </c>
       <c r="R5">
-        <v>10.655106785065</v>
+        <v>21.142256534105</v>
       </c>
       <c r="S5">
-        <v>0.00650530906539198</v>
+        <v>0.01084602750880658</v>
       </c>
       <c r="T5">
-        <v>0.006505309065391978</v>
+        <v>0.01084602750880658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>4.018773714321111</v>
@@ -818,10 +818,10 @@
         <v>36.16896342889</v>
       </c>
       <c r="S6">
-        <v>0.02208239583385402</v>
+        <v>0.01855476361673835</v>
       </c>
       <c r="T6">
-        <v>0.02208239583385402</v>
+        <v>0.01855476361673835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>0.9262897469505555</v>
@@ -880,10 +880,10 @@
         <v>8.336607722555</v>
       </c>
       <c r="S7">
-        <v>0.005089785666734918</v>
+        <v>0.004276699440435986</v>
       </c>
       <c r="T7">
-        <v>0.005089785666734918</v>
+        <v>0.004276699440435985</v>
       </c>
     </row>
   </sheetData>
